--- a/biology/Médecine/Exophorie/Exophorie.xlsx
+++ b/biology/Médecine/Exophorie/Exophorie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'exophorie est une forme d'hétérophorie se définissant comme une déviation des globes oculaires apparaissant seulement lorsque la vision des deux yeux est dissociée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exophorie est une forme d'hétérophorie se définissant comme une déviation des globes oculaires apparaissant seulement lorsque la vision des deux yeux est dissociée.
 L'exophorie peut être causée par plusieurs facteurs :
 Les erreurs de réfraction : une déviation à distance et de près équivalente.
 Les excès de divergence : une exodéviation de plus de 15 dioptres de plus à distance que de près.
-Les insuffisances de convergence : une exodéviation de près plus grande que la distance de déviation[2].
-Ces causes peuvent être dues à des problèmes nerveux, musculaires, congénitaux, ou d'anomalies mécaniques. Contrairement à l'exotropie, la fusion est possible dans ces conditions, rendant la diplopie peu courante[3].
+Les insuffisances de convergence : une exodéviation de près plus grande que la distance de déviation.
+Ces causes peuvent être dues à des problèmes nerveux, musculaires, congénitaux, ou d'anomalies mécaniques. Contrairement à l'exotropie, la fusion est possible dans ces conditions, rendant la diplopie peu courante.
 </t>
         </is>
       </c>
